--- a/TF-IDF/original_data/GS_Dogfood_500.xlsx
+++ b/TF-IDF/original_data/GS_Dogfood_500.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\TF-IDF\original_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D00C5755-AE9F-4304-8995-165C3DEE168B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA046ED2-4FC0-47A0-B848-36E02A09B964}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{3B43F789-3D8D-4B10-9C2A-149BA8335A7E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2504" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="715">
   <si>
     <t>megapet_105</t>
   </si>
@@ -2175,6 +2175,14 @@
   </si>
   <si>
     <t>Royal Canin Mini Sterilised</t>
+  </si>
+  <si>
+    <t>ROYAL CANIN MINI ADULT DOG FOOD 8KG</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>mypetwarehouse_118</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2578,8 +2586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2E4095-3552-43FC-91C7-831E220D70CD}">
   <dimension ref="A1:E503"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="C377" sqref="C377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2865,7 +2873,7 @@
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>19</v>
+        <v>714</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>444</v>
@@ -8957,10 +8965,10 @@
         <v>461</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D375" s="10" t="e">
-        <v>#N/A</v>
+        <v>714</v>
+      </c>
+      <c r="D375" s="3" t="s">
+        <v>713</v>
       </c>
       <c r="E375" s="3" t="s">
         <v>173</v>
